--- a/dados-cn.xlsx
+++ b/dados-cn.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="GSA_Report_Albuquerque_Né - Hou" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="dados-cn" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t xml:space="preserve">Horas</t>
+  </si>
   <si>
     <t xml:space="preserve">Jan</t>
   </si>
@@ -167,52 +170,55 @@
   <dimension ref="A1:M1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J29" activeCellId="0" sqref="J29"/>
+      <selection pane="topLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.640625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>0</v>
@@ -253,947 +259,587 @@
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I3" s="1" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J3" s="1" t="n">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="K3" s="1" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="L3" s="1" t="n">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="M3" s="1" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B4" s="1" t="n">
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0</v>
+        <v>273</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>0</v>
+        <v>261</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>0</v>
+        <v>232</v>
       </c>
       <c r="H4" s="1" t="n">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="I4" s="1" t="n">
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="J4" s="1" t="n">
-        <v>0</v>
+        <v>311</v>
       </c>
       <c r="K4" s="1" t="n">
-        <v>0</v>
+        <v>413</v>
       </c>
       <c r="L4" s="1" t="n">
-        <v>0</v>
+        <v>451</v>
       </c>
       <c r="M4" s="1" t="n">
-        <v>0</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="n">
-        <v>0</v>
+        <v>419</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>0</v>
+        <v>412</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>0</v>
+        <v>408</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0</v>
+        <v>434</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>0</v>
+        <v>398</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>0</v>
+        <v>373</v>
       </c>
       <c r="H5" s="1" t="n">
-        <v>0</v>
+        <v>356</v>
       </c>
       <c r="I5" s="1" t="n">
-        <v>0</v>
+        <v>407</v>
       </c>
       <c r="J5" s="1" t="n">
-        <v>0</v>
+        <v>469</v>
       </c>
       <c r="K5" s="1" t="n">
-        <v>0</v>
+        <v>572</v>
       </c>
       <c r="L5" s="1" t="n">
-        <v>0</v>
+        <v>601</v>
       </c>
       <c r="M5" s="1" t="n">
-        <v>0</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1" t="n">
-        <v>0</v>
+        <v>523</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>0</v>
+        <v>531</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>0</v>
+        <v>535</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>0</v>
+        <v>515</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>0</v>
+        <v>461</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>0</v>
+        <v>406</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>0</v>
+        <v>417</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>0</v>
+        <v>475</v>
       </c>
       <c r="J6" s="1" t="n">
-        <v>0</v>
+        <v>577</v>
       </c>
       <c r="K6" s="1" t="n">
-        <v>0</v>
+        <v>686</v>
       </c>
       <c r="L6" s="1" t="n">
-        <v>0</v>
+        <v>714</v>
       </c>
       <c r="M6" s="1" t="n">
-        <v>0</v>
+        <v>607</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B7" s="1" t="n">
-        <v>0</v>
+        <v>572</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>0</v>
+        <v>596</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>0</v>
+        <v>589</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>0</v>
+        <v>572</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>0</v>
+        <v>508</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>0</v>
+        <v>441</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>0</v>
+        <v>529</v>
       </c>
       <c r="J7" s="1" t="n">
-        <v>0</v>
+        <v>626</v>
       </c>
       <c r="K7" s="1" t="n">
-        <v>0</v>
+        <v>736</v>
       </c>
       <c r="L7" s="1" t="n">
-        <v>0</v>
+        <v>746</v>
       </c>
       <c r="M7" s="1" t="n">
-        <v>0</v>
+        <v>647</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="n">
-        <v>50</v>
+        <v>576</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>13</v>
+        <v>589</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>11</v>
+        <v>596</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>16</v>
+        <v>577</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>15</v>
+        <v>518</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>10</v>
+        <v>455</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>8</v>
+        <v>464</v>
       </c>
       <c r="I8" s="1" t="n">
-        <v>13</v>
+        <v>551</v>
       </c>
       <c r="J8" s="1" t="n">
-        <v>58</v>
+        <v>660</v>
       </c>
       <c r="K8" s="1" t="n">
-        <v>120</v>
+        <v>734</v>
       </c>
       <c r="L8" s="1" t="n">
-        <v>151</v>
+        <v>733</v>
       </c>
       <c r="M8" s="1" t="n">
-        <v>95</v>
+        <v>633</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="n">
-        <v>276</v>
+        <v>553</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>232</v>
+        <v>541</v>
       </c>
       <c r="D9" s="1" t="n">
-        <v>222</v>
+        <v>565</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>273</v>
+        <v>540</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>261</v>
+        <v>496</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>232</v>
+        <v>430</v>
       </c>
       <c r="H9" s="1" t="n">
-        <v>209</v>
+        <v>426</v>
       </c>
       <c r="I9" s="1" t="n">
-        <v>259</v>
+        <v>553</v>
       </c>
       <c r="J9" s="1" t="n">
-        <v>311</v>
+        <v>636</v>
       </c>
       <c r="K9" s="1" t="n">
-        <v>413</v>
+        <v>687</v>
       </c>
       <c r="L9" s="1" t="n">
-        <v>451</v>
+        <v>671</v>
       </c>
       <c r="M9" s="1" t="n">
-        <v>353</v>
+        <v>587</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B10" s="1" t="n">
-        <v>419</v>
+        <v>488</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>412</v>
+        <v>477</v>
       </c>
       <c r="D10" s="1" t="n">
-        <v>408</v>
+        <v>523</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>434</v>
+        <v>485</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>398</v>
+        <v>457</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="H10" s="1" t="n">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="I10" s="1" t="n">
-        <v>407</v>
+        <v>541</v>
       </c>
       <c r="J10" s="1" t="n">
-        <v>469</v>
+        <v>602</v>
       </c>
       <c r="K10" s="1" t="n">
-        <v>572</v>
+        <v>619</v>
       </c>
       <c r="L10" s="1" t="n">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="M10" s="1" t="n">
-        <v>495</v>
+        <v>513</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="n">
-        <v>523</v>
+        <v>408</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>531</v>
+        <v>411</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>535</v>
+        <v>450</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>515</v>
+        <v>431</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>461</v>
+        <v>414</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>406</v>
+        <v>370</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>417</v>
+        <v>392</v>
       </c>
       <c r="I11" s="1" t="n">
-        <v>475</v>
+        <v>513</v>
       </c>
       <c r="J11" s="1" t="n">
-        <v>577</v>
+        <v>538</v>
       </c>
       <c r="K11" s="1" t="n">
-        <v>686</v>
+        <v>529</v>
       </c>
       <c r="L11" s="1" t="n">
-        <v>714</v>
+        <v>506</v>
       </c>
       <c r="M11" s="1" t="n">
-        <v>607</v>
+        <v>443</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="n">
-        <v>572</v>
+        <v>335</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>596</v>
+        <v>339</v>
       </c>
       <c r="D12" s="1" t="n">
-        <v>589</v>
+        <v>375</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>572</v>
+        <v>371</v>
       </c>
       <c r="F12" s="1" t="n">
-        <v>508</v>
+        <v>375</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>441</v>
+        <v>339</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>464</v>
+        <v>362</v>
       </c>
       <c r="I12" s="1" t="n">
-        <v>529</v>
+        <v>469</v>
       </c>
       <c r="J12" s="1" t="n">
-        <v>626</v>
+        <v>475</v>
       </c>
       <c r="K12" s="1" t="n">
-        <v>736</v>
+        <v>446</v>
       </c>
       <c r="L12" s="1" t="n">
-        <v>746</v>
+        <v>431</v>
       </c>
       <c r="M12" s="1" t="n">
-        <v>647</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B13" s="1" t="n">
-        <v>576</v>
+        <v>271</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>589</v>
+        <v>275</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>596</v>
+        <v>319</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>577</v>
+        <v>307</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>518</v>
+        <v>325</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>455</v>
+        <v>307</v>
       </c>
       <c r="H13" s="1" t="n">
-        <v>464</v>
+        <v>327</v>
       </c>
       <c r="I13" s="1" t="n">
-        <v>551</v>
+        <v>414</v>
       </c>
       <c r="J13" s="1" t="n">
-        <v>660</v>
+        <v>399</v>
       </c>
       <c r="K13" s="1" t="n">
-        <v>734</v>
+        <v>380</v>
       </c>
       <c r="L13" s="1" t="n">
-        <v>733</v>
+        <v>377</v>
       </c>
       <c r="M13" s="1" t="n">
-        <v>633</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B14" s="1" t="n">
-        <v>553</v>
+        <v>217</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>541</v>
+        <v>210</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>565</v>
+        <v>238</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>540</v>
+        <v>224</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>496</v>
+        <v>218</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>430</v>
+        <v>220</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>426</v>
+        <v>244</v>
       </c>
       <c r="I14" s="1" t="n">
-        <v>553</v>
+        <v>304</v>
       </c>
       <c r="J14" s="1" t="n">
-        <v>636</v>
+        <v>270</v>
       </c>
       <c r="K14" s="1" t="n">
-        <v>687</v>
+        <v>259</v>
       </c>
       <c r="L14" s="1" t="n">
-        <v>671</v>
+        <v>283</v>
       </c>
       <c r="M14" s="1" t="n">
-        <v>587</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B15" s="1" t="n">
-        <v>488</v>
+        <v>82</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>477</v>
+        <v>77</v>
       </c>
       <c r="D15" s="1" t="n">
-        <v>523</v>
+        <v>73</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>485</v>
+        <v>25</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>457</v>
+        <v>10</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>393</v>
+        <v>11</v>
       </c>
       <c r="H15" s="1" t="n">
-        <v>400</v>
+        <v>17</v>
       </c>
       <c r="I15" s="1" t="n">
-        <v>541</v>
+        <v>38</v>
       </c>
       <c r="J15" s="1" t="n">
-        <v>602</v>
+        <v>18</v>
       </c>
       <c r="K15" s="1" t="n">
-        <v>619</v>
+        <v>16</v>
       </c>
       <c r="L15" s="1" t="n">
-        <v>588</v>
+        <v>35</v>
       </c>
       <c r="M15" s="1" t="n">
-        <v>513</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B16" s="1" t="n">
-        <v>408</v>
+        <v>0</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>411</v>
+        <v>0</v>
       </c>
       <c r="D16" s="1" t="n">
-        <v>450</v>
+        <v>0</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>431</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>414</v>
+        <v>0</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>392</v>
+        <v>0</v>
       </c>
       <c r="I16" s="1" t="n">
-        <v>513</v>
+        <v>0</v>
       </c>
       <c r="J16" s="1" t="n">
-        <v>538</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1" t="n">
-        <v>529</v>
+        <v>0</v>
       </c>
       <c r="L16" s="1" t="n">
-        <v>506</v>
+        <v>0</v>
       </c>
       <c r="M16" s="1" t="n">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="n">
-        <v>335</v>
-      </c>
-      <c r="C17" s="1" t="n">
-        <v>339</v>
-      </c>
-      <c r="D17" s="1" t="n">
-        <v>375</v>
-      </c>
-      <c r="E17" s="1" t="n">
-        <v>371</v>
-      </c>
-      <c r="F17" s="1" t="n">
-        <v>375</v>
-      </c>
-      <c r="G17" s="1" t="n">
-        <v>339</v>
-      </c>
-      <c r="H17" s="1" t="n">
-        <v>362</v>
-      </c>
-      <c r="I17" s="1" t="n">
-        <v>469</v>
-      </c>
-      <c r="J17" s="1" t="n">
-        <v>475</v>
-      </c>
-      <c r="K17" s="1" t="n">
-        <v>446</v>
-      </c>
-      <c r="L17" s="1" t="n">
-        <v>431</v>
-      </c>
-      <c r="M17" s="1" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="D18" s="1" t="n">
-        <v>319</v>
-      </c>
-      <c r="E18" s="1" t="n">
-        <v>307</v>
-      </c>
-      <c r="F18" s="1" t="n">
-        <v>325</v>
-      </c>
-      <c r="G18" s="1" t="n">
-        <v>307</v>
-      </c>
-      <c r="H18" s="1" t="n">
-        <v>327</v>
-      </c>
-      <c r="I18" s="1" t="n">
-        <v>414</v>
-      </c>
-      <c r="J18" s="1" t="n">
-        <v>399</v>
-      </c>
-      <c r="K18" s="1" t="n">
-        <v>380</v>
-      </c>
-      <c r="L18" s="1" t="n">
-        <v>377</v>
-      </c>
-      <c r="M18" s="1" t="n">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="C19" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="D19" s="1" t="n">
-        <v>238</v>
-      </c>
-      <c r="E19" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="F19" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="G19" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="H19" s="1" t="n">
-        <v>244</v>
-      </c>
-      <c r="I19" s="1" t="n">
-        <v>304</v>
-      </c>
-      <c r="J19" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="K19" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="L19" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="M19" s="1" t="n">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="D20" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="E20" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="F20" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="G20" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="H20" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="I20" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="J20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="K20" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="L20" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="M20" s="1" t="n">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
